--- a/Prometheus/监控项模板.xlsx
+++ b/Prometheus/监控项模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>运维监控项整理</t>
   </si>
@@ -226,6 +226,18 @@
     <t>Nginx</t>
   </si>
   <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>端口监控</t>
+  </si>
+  <si>
+    <t>mongo最大连接数</t>
+  </si>
+  <si>
+    <t>mongo当前连接数</t>
+  </si>
+  <si>
     <t>12.运行为1，其余为0</t>
   </si>
   <si>
@@ -275,6 +287,36 @@
   </si>
   <si>
     <t>20.运行为1，其余为0</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>端口检测</t>
+  </si>
+  <si>
+    <t>当前库连接从库数</t>
+  </si>
+  <si>
+    <t>当前连接客户端数</t>
+  </si>
+  <si>
+    <t>当前缓存数据使用内存量</t>
+  </si>
+  <si>
+    <t>当前内存碎片率(进程占用总量/数据内存量)</t>
+  </si>
+  <si>
+    <t>当前进程使用内存量</t>
+  </si>
+  <si>
+    <t>缓存命中数</t>
+  </si>
+  <si>
+    <t>缓存未命中数</t>
+  </si>
+  <si>
+    <t>缓存命中率</t>
   </si>
   <si>
     <t>Docker</t>
@@ -297,9 +339,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -327,32 +369,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,65 +388,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -448,7 +424,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,17 +475,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -497,109 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +563,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,13 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,25 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +671,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,17 +902,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,17 +916,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,9 +976,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,137 +1019,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,12 +1195,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1183,22 +1219,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1237,12 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1252,9 +1270,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1264,9 +1279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,9 +1289,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,9 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,9 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1330,8 +1333,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,17 +1348,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1670,10 +1682,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1762,7 +1774,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="46"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8"/>
@@ -1780,7 +1792,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="46"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8"/>
@@ -1798,7 +1810,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="46"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8"/>
@@ -1816,7 +1828,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="46"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8"/>
@@ -1834,7 +1846,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="46"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8"/>
@@ -1852,7 +1864,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="46"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="8"/>
@@ -1870,7 +1882,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="46"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8"/>
@@ -1888,7 +1900,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="46"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8"/>
@@ -1906,7 +1918,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="46"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8"/>
@@ -1926,7 +1938,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="47"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8"/>
@@ -1944,59 +1956,59 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="47"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="48"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8"/>
@@ -2014,115 +2026,115 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="49"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="49"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="49"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="50"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8"/>
@@ -2130,163 +2142,163 @@
         <v>23</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="24"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="24"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="24"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="24"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="24"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8"/>
@@ -2300,8 +2312,8 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8"/>
@@ -2309,145 +2321,145 @@
         <v>33</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="51"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="42"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="52"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="42"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="24" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="24" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="24" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="52"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="42"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="51"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="42"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="32" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="53"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="43"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8"/>
@@ -2455,1346 +2467,1566 @@
         <v>42</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="51"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="42"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="52"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="42"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="52"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="42"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="51"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="42"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="51"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="42"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="32" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="53"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="43"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8"/>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="54"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="44"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="N53" s="55"/>
+      <c r="N53" s="45"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
       <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="N54" s="55"/>
+      <c r="N54" s="45"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="56"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="46"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8"/>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="42" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="54"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="44"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N57" s="57"/>
+      <c r="N57" s="45"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45" t="s">
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N58" s="57"/>
+      <c r="N58" s="45"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="45" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N59" s="57"/>
+      <c r="N59" s="45"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="N60" s="57"/>
+      <c r="N60" s="45"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="45" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="N61" s="57"/>
+      <c r="N61" s="45"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="N62" s="57"/>
+      <c r="N62" s="45"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="N63" s="57"/>
+      <c r="N63" s="45"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="57"/>
+      <c r="N64" s="45"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="N65" s="57"/>
+      <c r="N65" s="45"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="58"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="59" t="s">
+      <c r="A66" s="47"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="56"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="46"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="78"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="66"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="65"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="79"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="67"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="65"/>
-      <c r="B69" s="70" t="s">
+      <c r="A69" s="8"/>
+      <c r="B69" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="78"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="66"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="65"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="79"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="67"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="65"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="78"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="66"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="65"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="79"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="67"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="65"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="78"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="66"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="65"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="79"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="67"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="65"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="78"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="66"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="65"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="79"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="67"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="65"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
-      <c r="M77" s="64"/>
-      <c r="N77" s="78"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="66"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="65"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="79"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="67"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="65"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="78"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="66"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="65"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="79"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="67"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="65"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
-      <c r="M81" s="73"/>
-      <c r="N81" s="80"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="68"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="65"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
-      <c r="M82" s="73"/>
-      <c r="N82" s="80"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="68"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="65"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="78"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="66"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="65"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="79"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="67"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="65"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="80"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="68"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="65"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="80"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="68"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="65"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
-      <c r="N87" s="78"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="66"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="65"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="79"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="67"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="65"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="63" t="s">
+      <c r="A89" s="8"/>
+      <c r="B89" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="78"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="69"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="65"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="79"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="69"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="65"/>
-      <c r="B91" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="78"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="69"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="65"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="79"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="66"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="65"/>
-      <c r="B93" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="64"/>
-      <c r="N93" s="78"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="67"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="65"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="69"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="79"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="50"/>
+      <c r="D94" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="66"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="65"/>
-      <c r="B95" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="62"/>
-      <c r="D95" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="78"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="67"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="65"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="79"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="50"/>
+      <c r="D96" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="66"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="65"/>
-      <c r="B97" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="78"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="67"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="69"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="69"/>
-      <c r="N98" s="79"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="50"/>
+      <c r="D98" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="66"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="65"/>
-      <c r="B99" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="78"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="67"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="65"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="69"/>
-      <c r="K100" s="69"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="69"/>
-      <c r="N100" s="79"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="50"/>
+      <c r="D100" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="66"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="65"/>
-      <c r="B101" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="78"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="67"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="65"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="79"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="50"/>
+      <c r="D102" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="66"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="65"/>
-      <c r="B103" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C103" s="71"/>
-      <c r="D103" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="78"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="67"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="65"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="69"/>
-      <c r="J104" s="69"/>
-      <c r="K104" s="69"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="69"/>
-      <c r="N104" s="79"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="50"/>
+      <c r="D104" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="66"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="65"/>
-      <c r="B105" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="78"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="67"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="65"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="69"/>
-      <c r="J106" s="69"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="79"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="63"/>
+      <c r="D106" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="66"/>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="65"/>
-      <c r="B107" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" s="71"/>
-      <c r="D107" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
-      <c r="K107" s="73"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="73"/>
-      <c r="N107" s="80"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="67"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="74"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="69"/>
-      <c r="J108" s="69"/>
-      <c r="K108" s="69"/>
-      <c r="L108" s="69"/>
-      <c r="M108" s="69"/>
-      <c r="N108" s="79"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="50"/>
+      <c r="D108" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="66"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B109" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" s="75"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="75"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="62"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="67"/>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="65"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="71"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="63"/>
+      <c r="D110" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
+      <c r="L110" s="60"/>
+      <c r="M110" s="60"/>
+      <c r="N110" s="68"/>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="65"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="71"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="60"/>
+      <c r="L111" s="60"/>
+      <c r="M111" s="60"/>
+      <c r="N111" s="68"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="65"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="76"/>
-      <c r="N112" s="71"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="60"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="60"/>
+      <c r="L112" s="60"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="68"/>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="65"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="76"/>
-      <c r="N113" s="71"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="68"/>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="65"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="76"/>
-      <c r="N114" s="71"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="68"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="65"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
-      <c r="K115" s="76"/>
-      <c r="L115" s="76"/>
-      <c r="M115" s="76"/>
-      <c r="N115" s="71"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="60"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="68"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="65"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="76"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="76"/>
-      <c r="I116" s="76"/>
-      <c r="J116" s="76"/>
-      <c r="K116" s="76"/>
-      <c r="L116" s="76"/>
-      <c r="M116" s="76"/>
-      <c r="N116" s="71"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="60"/>
+      <c r="K116" s="60"/>
+      <c r="L116" s="60"/>
+      <c r="M116" s="60"/>
+      <c r="N116" s="68"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="65"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="76"/>
-      <c r="N117" s="71"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="60"/>
+      <c r="M117" s="60"/>
+      <c r="N117" s="68"/>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="65"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
-      <c r="K118" s="76"/>
-      <c r="L118" s="76"/>
-      <c r="M118" s="76"/>
-      <c r="N118" s="71"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="60"/>
+      <c r="F118" s="60"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="60"/>
+      <c r="I118" s="60"/>
+      <c r="J118" s="60"/>
+      <c r="K118" s="60"/>
+      <c r="L118" s="60"/>
+      <c r="M118" s="60"/>
+      <c r="N118" s="68"/>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="65"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
-      <c r="K119" s="76"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="76"/>
-      <c r="N119" s="71"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="63"/>
+      <c r="D119" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="60"/>
+      <c r="J119" s="60"/>
+      <c r="K119" s="60"/>
+      <c r="L119" s="60"/>
+      <c r="M119" s="60"/>
+      <c r="N119" s="68"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="65"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="76"/>
-      <c r="M120" s="76"/>
-      <c r="N120" s="71"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="67"/>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="65"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
-      <c r="K121" s="76"/>
-      <c r="L121" s="76"/>
-      <c r="M121" s="76"/>
-      <c r="N121" s="71"/>
+      <c r="A121" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="64"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
+      <c r="L121" s="64"/>
+      <c r="M121" s="64"/>
+      <c r="N121" s="50"/>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="65"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="76"/>
-      <c r="N122" s="71"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
+      <c r="L122" s="65"/>
+      <c r="M122" s="65"/>
+      <c r="N122" s="63"/>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="74"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
-      <c r="M123" s="77"/>
-      <c r="N123" s="67"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B124" s="61"/>
-      <c r="C124" s="62"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="65"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="71"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="65"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="71"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="65"/>
-      <c r="B127" s="70"/>
-      <c r="C127" s="71"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="65"/>
-      <c r="B128" s="70"/>
-      <c r="C128" s="71"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="65"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="71"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="65"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="71"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="65"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="71"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="65"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="71"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="65"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="71"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="65"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="71"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="65"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="71"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
+      <c r="L123" s="65"/>
+      <c r="M123" s="65"/>
+      <c r="N123" s="63"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="8"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="65"/>
+      <c r="N124" s="63"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="8"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
+      <c r="L125" s="65"/>
+      <c r="M125" s="65"/>
+      <c r="N125" s="63"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="8"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
+      <c r="L126" s="65"/>
+      <c r="M126" s="65"/>
+      <c r="N126" s="63"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="8"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
+      <c r="L127" s="65"/>
+      <c r="M127" s="65"/>
+      <c r="N127" s="63"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="8"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
+      <c r="L128" s="65"/>
+      <c r="M128" s="65"/>
+      <c r="N128" s="63"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="8"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
+      <c r="L129" s="65"/>
+      <c r="M129" s="65"/>
+      <c r="N129" s="63"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="8"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
+      <c r="L130" s="65"/>
+      <c r="M130" s="65"/>
+      <c r="N130" s="63"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="8"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
+      <c r="L131" s="65"/>
+      <c r="M131" s="65"/>
+      <c r="N131" s="63"/>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="8"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="65"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65"/>
+      <c r="K132" s="65"/>
+      <c r="L132" s="65"/>
+      <c r="M132" s="65"/>
+      <c r="N132" s="63"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="8"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="65"/>
+      <c r="J133" s="65"/>
+      <c r="K133" s="65"/>
+      <c r="L133" s="65"/>
+      <c r="M133" s="65"/>
+      <c r="N133" s="63"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="8"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="65"/>
+      <c r="J134" s="65"/>
+      <c r="K134" s="65"/>
+      <c r="L134" s="65"/>
+      <c r="M134" s="65"/>
+      <c r="N134" s="63"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="47"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
+      <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="65"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="71"/>
+      <c r="A136" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="49"/>
+      <c r="C136" s="50"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="65"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="71"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="63"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="65"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="71"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="63"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="65"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="71"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="63"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="65"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="71"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="63"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="65"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="71"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="63"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="74"/>
-      <c r="B142" s="66"/>
-      <c r="C142" s="67"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="63"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="8"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="8"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="63"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="8"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="63"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="8"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="63"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="8"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="63"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="8"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="63"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="8"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="63"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="8"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="63"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="63"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="8"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="63"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="8"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="63"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="47"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="128">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:N5"/>
     <mergeCell ref="B6:C6"/>
@@ -3863,10 +4095,22 @@
     <mergeCell ref="D64:N64"/>
     <mergeCell ref="D65:N65"/>
     <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D89:N89"/>
+    <mergeCell ref="D90:N90"/>
+    <mergeCell ref="D91:N91"/>
+    <mergeCell ref="D110:N110"/>
+    <mergeCell ref="D111:N111"/>
+    <mergeCell ref="D112:N112"/>
+    <mergeCell ref="D113:N113"/>
+    <mergeCell ref="D114:N114"/>
+    <mergeCell ref="D115:N115"/>
+    <mergeCell ref="D116:N116"/>
+    <mergeCell ref="D117:N117"/>
+    <mergeCell ref="D118:N118"/>
     <mergeCell ref="A5:A66"/>
-    <mergeCell ref="A67:A108"/>
-    <mergeCell ref="A109:A123"/>
-    <mergeCell ref="A124:A142"/>
+    <mergeCell ref="A67:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A154"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="B26:C37"/>
     <mergeCell ref="B14:C25"/>
@@ -3881,34 +4125,36 @@
     <mergeCell ref="D83:N84"/>
     <mergeCell ref="D85:N86"/>
     <mergeCell ref="D87:N88"/>
-    <mergeCell ref="D89:N90"/>
-    <mergeCell ref="B91:C92"/>
-    <mergeCell ref="D91:N92"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:N94"/>
-    <mergeCell ref="B95:C96"/>
-    <mergeCell ref="D95:N96"/>
-    <mergeCell ref="B97:C98"/>
-    <mergeCell ref="D97:N98"/>
-    <mergeCell ref="B99:C100"/>
-    <mergeCell ref="D99:N100"/>
-    <mergeCell ref="B101:C102"/>
-    <mergeCell ref="D101:N102"/>
     <mergeCell ref="B38:C45"/>
-    <mergeCell ref="B103:C104"/>
-    <mergeCell ref="D103:N104"/>
     <mergeCell ref="B46:C51"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:N106"/>
     <mergeCell ref="B52:C55"/>
     <mergeCell ref="B56:C66"/>
     <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B107:C108"/>
-    <mergeCell ref="D107:N108"/>
-    <mergeCell ref="B69:C90"/>
-    <mergeCell ref="B109:C123"/>
-    <mergeCell ref="D109:N123"/>
-    <mergeCell ref="B124:C142"/>
+    <mergeCell ref="D92:N93"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:N95"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="D96:N97"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="D98:N99"/>
+    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="D100:N101"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="D102:N103"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:N105"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="D106:N107"/>
+    <mergeCell ref="B108:C109"/>
+    <mergeCell ref="D108:N109"/>
+    <mergeCell ref="B110:C118"/>
+    <mergeCell ref="B119:C120"/>
+    <mergeCell ref="D119:N120"/>
+    <mergeCell ref="B121:C135"/>
+    <mergeCell ref="D121:N135"/>
+    <mergeCell ref="B136:C154"/>
+    <mergeCell ref="B89:C91"/>
+    <mergeCell ref="B69:C88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
